--- a/Financials/Quarterly/OMVKY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/OMVKY_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0228EE-4BDD-488A-AFE1-7359D1BA8AE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OMVKY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>OMVKY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,153 +689,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6697800</v>
+        <v>6291000</v>
       </c>
       <c r="E8" s="3">
-        <v>5842100</v>
+        <v>6402100</v>
       </c>
       <c r="F8" s="3">
-        <v>5758700</v>
+        <v>5584100</v>
       </c>
       <c r="G8" s="3">
-        <v>5453500</v>
+        <v>5504500</v>
       </c>
       <c r="H8" s="3">
-        <v>6047500</v>
+        <v>5212800</v>
       </c>
       <c r="I8" s="3">
-        <v>6477100</v>
+        <v>5780500</v>
       </c>
       <c r="J8" s="3">
+        <v>6191100</v>
+      </c>
+      <c r="K8" s="3">
         <v>6346800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6161300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4984000</v>
+        <v>4295000</v>
       </c>
       <c r="E9" s="3">
-        <v>3773800</v>
+        <v>4764000</v>
       </c>
       <c r="F9" s="3">
-        <v>3949900</v>
+        <v>3607200</v>
       </c>
       <c r="G9" s="3">
-        <v>3681100</v>
+        <v>3775500</v>
       </c>
       <c r="H9" s="3">
-        <v>4340700</v>
+        <v>3518600</v>
       </c>
       <c r="I9" s="3">
-        <v>4434700</v>
+        <v>4149100</v>
       </c>
       <c r="J9" s="3">
+        <v>4238900</v>
+      </c>
+      <c r="K9" s="3">
         <v>6463000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5864400</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1713800</v>
+        <v>1996000</v>
       </c>
       <c r="E10" s="3">
-        <v>2068300</v>
+        <v>1638100</v>
       </c>
       <c r="F10" s="3">
-        <v>1808800</v>
+        <v>1976900</v>
       </c>
       <c r="G10" s="3">
-        <v>1772500</v>
+        <v>1729000</v>
       </c>
       <c r="H10" s="3">
-        <v>1706700</v>
+        <v>1694200</v>
       </c>
       <c r="I10" s="3">
-        <v>2042400</v>
+        <v>1631400</v>
       </c>
       <c r="J10" s="3">
+        <v>1952300</v>
+      </c>
+      <c r="K10" s="3">
         <v>-116200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>297000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +860,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>62200</v>
+        <v>28000</v>
       </c>
       <c r="E12" s="3">
-        <v>43400</v>
+        <v>59500</v>
       </c>
       <c r="F12" s="3">
-        <v>112700</v>
+        <v>41500</v>
       </c>
       <c r="G12" s="3">
-        <v>41100</v>
+        <v>107700</v>
       </c>
       <c r="H12" s="3">
-        <v>68100</v>
+        <v>39300</v>
       </c>
       <c r="I12" s="3">
-        <v>37600</v>
+        <v>65100</v>
       </c>
       <c r="J12" s="3">
+        <v>35900</v>
+      </c>
+      <c r="K12" s="3">
         <v>83300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>77500</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,66 +922,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>167200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-69600</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-3500</v>
-      </c>
       <c r="G14" s="3">
-        <v>-2300</v>
+        <v>-3400</v>
       </c>
       <c r="H14" s="3">
-        <v>1425000</v>
+        <v>-2200</v>
       </c>
       <c r="I14" s="3">
-        <v>-160800</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+        <v>1362100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-153700</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>551700</v>
+        <v>501500</v>
       </c>
       <c r="E15" s="3">
-        <v>520000</v>
+        <v>527300</v>
       </c>
       <c r="F15" s="3">
-        <v>535300</v>
+        <v>497000</v>
       </c>
       <c r="G15" s="3">
-        <v>563400</v>
+        <v>511600</v>
       </c>
       <c r="H15" s="3">
-        <v>542300</v>
+        <v>538600</v>
       </c>
       <c r="I15" s="3">
-        <v>532900</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>10</v>
+        <v>518400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>509400</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +999,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6134300</v>
+        <v>5555000</v>
       </c>
       <c r="E17" s="3">
-        <v>4913600</v>
+        <v>5863500</v>
       </c>
       <c r="F17" s="3">
-        <v>5126000</v>
+        <v>4696700</v>
       </c>
       <c r="G17" s="3">
-        <v>4792700</v>
+        <v>4899700</v>
       </c>
       <c r="H17" s="3">
-        <v>6980600</v>
+        <v>4581100</v>
       </c>
       <c r="I17" s="3">
-        <v>5401900</v>
+        <v>6672500</v>
       </c>
       <c r="J17" s="3">
+        <v>5163400</v>
+      </c>
+      <c r="K17" s="3">
         <v>6659000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6087400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>563400</v>
+        <v>736000</v>
       </c>
       <c r="E18" s="3">
-        <v>928500</v>
+        <v>538600</v>
       </c>
       <c r="F18" s="3">
-        <v>632700</v>
+        <v>887500</v>
       </c>
       <c r="G18" s="3">
-        <v>660900</v>
+        <v>604800</v>
       </c>
       <c r="H18" s="3">
-        <v>-933200</v>
+        <v>631700</v>
       </c>
       <c r="I18" s="3">
-        <v>1075200</v>
+        <v>-892000</v>
       </c>
       <c r="J18" s="3">
+        <v>1027700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-312200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,153 +1077,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>189000</v>
+        <v>156000</v>
       </c>
       <c r="E20" s="3">
-        <v>96300</v>
+        <v>180600</v>
       </c>
       <c r="F20" s="3">
-        <v>27000</v>
+        <v>92000</v>
       </c>
       <c r="G20" s="3">
-        <v>235900</v>
+        <v>25800</v>
       </c>
       <c r="H20" s="3">
+        <v>225500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>113300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>149200</v>
+      </c>
+      <c r="K20" s="3">
         <v>118600</v>
       </c>
-      <c r="I20" s="3">
-        <v>156100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>118600</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>166700</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1318200</v>
+        <v>1403600</v>
       </c>
       <c r="E21" s="3">
-        <v>1553000</v>
+        <v>1260000</v>
       </c>
       <c r="F21" s="3">
-        <v>1284100</v>
+        <v>1484400</v>
       </c>
       <c r="G21" s="3">
-        <v>1470800</v>
+        <v>1227500</v>
       </c>
       <c r="H21" s="3">
-        <v>-203100</v>
+        <v>1405900</v>
       </c>
       <c r="I21" s="3">
-        <v>1754800</v>
+        <v>-194100</v>
       </c>
       <c r="J21" s="3">
+        <v>1677400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1205500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1295900</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100900</v>
+        <v>78500</v>
       </c>
       <c r="E22" s="3">
-        <v>75100</v>
-      </c>
-      <c r="F22" s="3" t="s">
+        <v>96500</v>
+      </c>
+      <c r="F22" s="3">
+        <v>71800</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="3">
-        <v>84500</v>
-      </c>
       <c r="H22" s="3">
-        <v>72800</v>
+        <v>80800</v>
       </c>
       <c r="I22" s="3">
-        <v>71600</v>
+        <v>69600</v>
       </c>
       <c r="J22" s="3">
+        <v>68400</v>
+      </c>
+      <c r="K22" s="3">
         <v>74000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>651500</v>
+        <v>813400</v>
       </c>
       <c r="E23" s="3">
-        <v>949600</v>
+        <v>622700</v>
       </c>
       <c r="F23" s="3">
-        <v>659700</v>
+        <v>907700</v>
       </c>
       <c r="G23" s="3">
-        <v>812300</v>
+        <v>630600</v>
       </c>
       <c r="H23" s="3">
-        <v>-887400</v>
+        <v>776400</v>
       </c>
       <c r="I23" s="3">
-        <v>1159700</v>
+        <v>-848200</v>
       </c>
       <c r="J23" s="3">
+        <v>1108500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-267600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>327500</v>
+        <v>371400</v>
       </c>
       <c r="E24" s="3">
-        <v>326300</v>
+        <v>313000</v>
       </c>
       <c r="F24" s="3">
-        <v>166700</v>
+        <v>311900</v>
       </c>
       <c r="G24" s="3">
-        <v>173700</v>
+        <v>159300</v>
       </c>
       <c r="H24" s="3">
-        <v>201900</v>
+        <v>166100</v>
       </c>
       <c r="I24" s="3">
-        <v>201900</v>
+        <v>193000</v>
       </c>
       <c r="J24" s="3">
+        <v>193000</v>
+      </c>
+      <c r="K24" s="3">
         <v>120900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1267,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>324000</v>
+        <v>442100</v>
       </c>
       <c r="E26" s="3">
-        <v>623300</v>
+        <v>309700</v>
       </c>
       <c r="F26" s="3">
-        <v>493000</v>
+        <v>595800</v>
       </c>
       <c r="G26" s="3">
-        <v>638600</v>
+        <v>471200</v>
       </c>
       <c r="H26" s="3">
-        <v>-1089300</v>
+        <v>610400</v>
       </c>
       <c r="I26" s="3">
-        <v>957800</v>
+        <v>-1041200</v>
       </c>
       <c r="J26" s="3">
+        <v>915500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-388500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>238300</v>
+        <v>248000</v>
       </c>
       <c r="E27" s="3">
-        <v>476600</v>
+        <v>227800</v>
       </c>
       <c r="F27" s="3">
-        <v>365100</v>
+        <v>455500</v>
       </c>
       <c r="G27" s="3">
-        <v>514100</v>
+        <v>348900</v>
       </c>
       <c r="H27" s="3">
-        <v>-1206700</v>
+        <v>491400</v>
       </c>
       <c r="I27" s="3">
-        <v>835800</v>
+        <v>-1153400</v>
       </c>
       <c r="J27" s="3">
+        <v>798900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-442500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1363,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1395,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1427,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1459,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-189000</v>
+        <v>-156000</v>
       </c>
       <c r="E32" s="3">
-        <v>-96300</v>
+        <v>-180600</v>
       </c>
       <c r="F32" s="3">
-        <v>-27000</v>
+        <v>-92000</v>
       </c>
       <c r="G32" s="3">
-        <v>-235900</v>
+        <v>-25800</v>
       </c>
       <c r="H32" s="3">
+        <v>-225500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-113300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-149200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-118600</v>
       </c>
-      <c r="I32" s="3">
-        <v>-156100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-118600</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-166700</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>238300</v>
+        <v>248000</v>
       </c>
       <c r="E33" s="3">
-        <v>476600</v>
+        <v>227800</v>
       </c>
       <c r="F33" s="3">
-        <v>365100</v>
+        <v>455500</v>
       </c>
       <c r="G33" s="3">
-        <v>514100</v>
+        <v>348900</v>
       </c>
       <c r="H33" s="3">
-        <v>-1206700</v>
+        <v>491400</v>
       </c>
       <c r="I33" s="3">
-        <v>835800</v>
+        <v>-1153400</v>
       </c>
       <c r="J33" s="3">
+        <v>798900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-442500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1555,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>238300</v>
+        <v>248000</v>
       </c>
       <c r="E35" s="3">
-        <v>476600</v>
+        <v>227800</v>
       </c>
       <c r="F35" s="3">
-        <v>365100</v>
+        <v>455500</v>
       </c>
       <c r="G35" s="3">
-        <v>514100</v>
+        <v>348900</v>
       </c>
       <c r="H35" s="3">
-        <v>-1206700</v>
+        <v>491400</v>
       </c>
       <c r="I35" s="3">
-        <v>835800</v>
+        <v>-1153400</v>
       </c>
       <c r="J35" s="3">
+        <v>798900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-442500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1640,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,269 +1654,297 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3435700</v>
+        <v>3829400</v>
       </c>
       <c r="E41" s="3">
-        <v>5043900</v>
+        <v>3284100</v>
       </c>
       <c r="F41" s="3">
-        <v>4662400</v>
+        <v>4821200</v>
       </c>
       <c r="G41" s="3">
-        <v>5450000</v>
+        <v>4456500</v>
       </c>
       <c r="H41" s="3">
-        <v>4933500</v>
+        <v>5209400</v>
       </c>
       <c r="I41" s="3">
-        <v>3665800</v>
+        <v>4715700</v>
       </c>
       <c r="J41" s="3">
+        <v>3504000</v>
+      </c>
+      <c r="K41" s="3">
         <v>2428600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2051800</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2798400</v>
+        <v>4284900</v>
       </c>
       <c r="E42" s="3">
-        <v>1419100</v>
+        <v>2674800</v>
       </c>
       <c r="F42" s="3">
-        <v>1338100</v>
+        <v>1356500</v>
       </c>
       <c r="G42" s="3">
-        <v>1277100</v>
+        <v>1279100</v>
       </c>
       <c r="H42" s="3">
-        <v>947300</v>
+        <v>1220700</v>
       </c>
       <c r="I42" s="3">
-        <v>859200</v>
+        <v>905400</v>
       </c>
       <c r="J42" s="3">
+        <v>821300</v>
+      </c>
+      <c r="K42" s="3">
         <v>1461400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1007100</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3149300</v>
+        <v>3238100</v>
       </c>
       <c r="E43" s="3">
-        <v>3786700</v>
+        <v>3010300</v>
       </c>
       <c r="F43" s="3">
-        <v>2955700</v>
+        <v>3619500</v>
       </c>
       <c r="G43" s="3">
-        <v>2393400</v>
+        <v>2825200</v>
       </c>
       <c r="H43" s="3">
-        <v>2425100</v>
+        <v>2287700</v>
       </c>
       <c r="I43" s="3">
-        <v>3056600</v>
+        <v>2318000</v>
       </c>
       <c r="J43" s="3">
+        <v>2921700</v>
+      </c>
+      <c r="K43" s="3">
         <v>2924000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3400500</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1752500</v>
+        <v>1869200</v>
       </c>
       <c r="E44" s="3">
-        <v>1589300</v>
+        <v>1675100</v>
       </c>
       <c r="F44" s="3">
-        <v>1764200</v>
+        <v>1519200</v>
       </c>
       <c r="G44" s="3">
-        <v>1808800</v>
+        <v>1686400</v>
       </c>
       <c r="H44" s="3">
-        <v>1564700</v>
+        <v>1729000</v>
       </c>
       <c r="I44" s="3">
-        <v>1723200</v>
+        <v>1495600</v>
       </c>
       <c r="J44" s="3">
+        <v>1647100</v>
+      </c>
+      <c r="K44" s="3">
         <v>1952000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2046000</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>454300</v>
+        <v>424100</v>
       </c>
       <c r="E45" s="3">
-        <v>387400</v>
+        <v>434200</v>
       </c>
       <c r="F45" s="3">
-        <v>311100</v>
+        <v>370300</v>
       </c>
       <c r="G45" s="3">
-        <v>281700</v>
+        <v>297300</v>
       </c>
       <c r="H45" s="3">
-        <v>299300</v>
+        <v>269300</v>
       </c>
       <c r="I45" s="3">
-        <v>293500</v>
+        <v>286100</v>
       </c>
       <c r="J45" s="3">
+        <v>280500</v>
+      </c>
+      <c r="K45" s="3">
         <v>232400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>367400</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11590200</v>
+        <v>13645600</v>
       </c>
       <c r="E46" s="3">
-        <v>12226400</v>
+        <v>11078500</v>
       </c>
       <c r="F46" s="3">
-        <v>11031500</v>
+        <v>11686600</v>
       </c>
       <c r="G46" s="3">
-        <v>11211100</v>
+        <v>10544500</v>
       </c>
       <c r="H46" s="3">
-        <v>10169900</v>
+        <v>10716100</v>
       </c>
       <c r="I46" s="3">
-        <v>9598200</v>
+        <v>9720900</v>
       </c>
       <c r="J46" s="3">
+        <v>9174500</v>
+      </c>
+      <c r="K46" s="3">
         <v>8998400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8872800</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6072100</v>
+        <v>6076700</v>
       </c>
       <c r="E47" s="3">
-        <v>5597900</v>
+        <v>5804100</v>
       </c>
       <c r="F47" s="3">
-        <v>5718800</v>
+        <v>5350800</v>
       </c>
       <c r="G47" s="3">
-        <v>4636500</v>
+        <v>5466300</v>
       </c>
       <c r="H47" s="3">
-        <v>4608400</v>
+        <v>4431900</v>
       </c>
       <c r="I47" s="3">
-        <v>4337200</v>
+        <v>4404900</v>
       </c>
       <c r="J47" s="3">
+        <v>4145800</v>
+      </c>
+      <c r="K47" s="3">
         <v>4468700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4164700</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16752600</v>
+        <v>15882900</v>
       </c>
       <c r="E48" s="3">
-        <v>15892200</v>
+        <v>16013000</v>
       </c>
       <c r="F48" s="3">
-        <v>16027200</v>
+        <v>15190600</v>
       </c>
       <c r="G48" s="3">
-        <v>16171600</v>
+        <v>15319700</v>
       </c>
       <c r="H48" s="3">
-        <v>16475600</v>
+        <v>15457700</v>
       </c>
       <c r="I48" s="3">
-        <v>16805400</v>
+        <v>15748300</v>
       </c>
       <c r="J48" s="3">
+        <v>16063500</v>
+      </c>
+      <c r="K48" s="3">
         <v>17152900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17763300</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3408700</v>
+        <v>3243700</v>
       </c>
       <c r="E49" s="3">
-        <v>3081300</v>
+        <v>3258300</v>
       </c>
       <c r="F49" s="3">
-        <v>3108200</v>
+        <v>2945200</v>
       </c>
       <c r="G49" s="3">
-        <v>1938000</v>
+        <v>2971000</v>
       </c>
       <c r="H49" s="3">
-        <v>1953200</v>
+        <v>1852400</v>
       </c>
       <c r="I49" s="3">
-        <v>2023600</v>
+        <v>1867000</v>
       </c>
       <c r="J49" s="3">
+        <v>1934300</v>
+      </c>
+      <c r="K49" s="3">
         <v>2010700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2851200</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1972,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +2004,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1506000</v>
+        <v>1272300</v>
       </c>
       <c r="E52" s="3">
-        <v>1192600</v>
+        <v>1439500</v>
       </c>
       <c r="F52" s="3">
-        <v>1178500</v>
+        <v>1139900</v>
       </c>
       <c r="G52" s="3">
-        <v>979000</v>
+        <v>1126500</v>
       </c>
       <c r="H52" s="3">
-        <v>1223100</v>
+        <v>935700</v>
       </c>
       <c r="I52" s="3">
-        <v>3803100</v>
+        <v>1169100</v>
       </c>
       <c r="J52" s="3">
+        <v>3635200</v>
+      </c>
+      <c r="K52" s="3">
         <v>5062600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2902800</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2068,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39329700</v>
+        <v>40121200</v>
       </c>
       <c r="E54" s="3">
-        <v>37990400</v>
+        <v>37593400</v>
       </c>
       <c r="F54" s="3">
-        <v>37064200</v>
+        <v>36313200</v>
       </c>
       <c r="G54" s="3">
-        <v>34936100</v>
+        <v>35428000</v>
       </c>
       <c r="H54" s="3">
-        <v>34430200</v>
+        <v>33393800</v>
       </c>
       <c r="I54" s="3">
-        <v>36567700</v>
+        <v>32910200</v>
       </c>
       <c r="J54" s="3">
+        <v>34953400</v>
+      </c>
+      <c r="K54" s="3">
         <v>37693400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36554800</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2116,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,182 +2130,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4144700</v>
+        <v>4154700</v>
       </c>
       <c r="E57" s="3">
-        <v>4179900</v>
+        <v>3961700</v>
       </c>
       <c r="F57" s="3">
-        <v>3829000</v>
+        <v>3995400</v>
       </c>
       <c r="G57" s="3">
-        <v>3419300</v>
+        <v>3659900</v>
       </c>
       <c r="H57" s="3">
-        <v>3168100</v>
+        <v>3268400</v>
       </c>
       <c r="I57" s="3">
-        <v>3620000</v>
+        <v>3028300</v>
       </c>
       <c r="J57" s="3">
+        <v>3460200</v>
+      </c>
+      <c r="K57" s="3">
         <v>4379500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4035600</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1070500</v>
+        <v>978400</v>
       </c>
       <c r="E58" s="3">
-        <v>2034200</v>
+        <v>1023300</v>
       </c>
       <c r="F58" s="3">
-        <v>1058800</v>
+        <v>1944400</v>
       </c>
       <c r="G58" s="3">
-        <v>287600</v>
+        <v>1012000</v>
       </c>
       <c r="H58" s="3">
-        <v>228900</v>
+        <v>274900</v>
       </c>
       <c r="I58" s="3">
-        <v>199500</v>
+        <v>218800</v>
       </c>
       <c r="J58" s="3">
+        <v>190700</v>
+      </c>
+      <c r="K58" s="3">
         <v>305200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>721900</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4964000</v>
+        <v>6262900</v>
       </c>
       <c r="E59" s="3">
-        <v>3304300</v>
+        <v>4744900</v>
       </c>
       <c r="F59" s="3">
-        <v>3124700</v>
+        <v>3158400</v>
       </c>
       <c r="G59" s="3">
-        <v>2880500</v>
+        <v>2986700</v>
       </c>
       <c r="H59" s="3">
-        <v>2673900</v>
+        <v>2753400</v>
       </c>
       <c r="I59" s="3">
-        <v>2726800</v>
+        <v>2555900</v>
       </c>
       <c r="J59" s="3">
+        <v>2606400</v>
+      </c>
+      <c r="K59" s="3">
         <v>3211500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3006100</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10179300</v>
+        <v>11396100</v>
       </c>
       <c r="E60" s="3">
-        <v>9518400</v>
+        <v>9729900</v>
       </c>
       <c r="F60" s="3">
-        <v>8012400</v>
+        <v>9098200</v>
       </c>
       <c r="G60" s="3">
-        <v>6587400</v>
+        <v>7658700</v>
       </c>
       <c r="H60" s="3">
-        <v>6070900</v>
+        <v>6296600</v>
       </c>
       <c r="I60" s="3">
-        <v>6546300</v>
+        <v>5802900</v>
       </c>
       <c r="J60" s="3">
+        <v>6257300</v>
+      </c>
+      <c r="K60" s="3">
         <v>7896200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7763600</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5383100</v>
+        <v>5118500</v>
       </c>
       <c r="E61" s="3">
-        <v>5364300</v>
+        <v>5145400</v>
       </c>
       <c r="F61" s="3">
-        <v>5623700</v>
+        <v>5127500</v>
       </c>
       <c r="G61" s="3">
-        <v>5371400</v>
+        <v>5375500</v>
       </c>
       <c r="H61" s="3">
-        <v>5486400</v>
+        <v>5134200</v>
       </c>
       <c r="I61" s="3">
-        <v>5520400</v>
+        <v>5244200</v>
       </c>
       <c r="J61" s="3">
+        <v>5276700</v>
+      </c>
+      <c r="K61" s="3">
         <v>5869100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5379600</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6958300</v>
+        <v>7018000</v>
       </c>
       <c r="E62" s="3">
-        <v>6675500</v>
+        <v>6651200</v>
       </c>
       <c r="F62" s="3">
-        <v>6602700</v>
+        <v>6380800</v>
       </c>
       <c r="G62" s="3">
-        <v>6254100</v>
+        <v>6311200</v>
       </c>
       <c r="H62" s="3">
-        <v>6635500</v>
+        <v>5978000</v>
       </c>
       <c r="I62" s="3">
-        <v>7549900</v>
+        <v>6342600</v>
       </c>
       <c r="J62" s="3">
+        <v>7216600</v>
+      </c>
+      <c r="K62" s="3">
         <v>7582800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6944300</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2352,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2384,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2416,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>26180700</v>
+        <v>27201500</v>
       </c>
       <c r="E66" s="3">
-        <v>25339000</v>
+        <v>25024900</v>
       </c>
       <c r="F66" s="3">
-        <v>23898800</v>
+        <v>24220400</v>
       </c>
       <c r="G66" s="3">
-        <v>21815300</v>
+        <v>22843700</v>
       </c>
       <c r="H66" s="3">
-        <v>21736600</v>
+        <v>20852200</v>
       </c>
       <c r="I66" s="3">
-        <v>23232000</v>
+        <v>20777000</v>
       </c>
       <c r="J66" s="3">
+        <v>22206400</v>
+      </c>
+      <c r="K66" s="3">
         <v>24881300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23502000</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2464,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2494,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2526,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2558,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2590,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10439900</v>
+        <v>10329000</v>
       </c>
       <c r="E72" s="3">
-        <v>10526700</v>
+        <v>9979000</v>
       </c>
       <c r="F72" s="3">
-        <v>10162800</v>
+        <v>10062000</v>
       </c>
       <c r="G72" s="3">
-        <v>10127600</v>
+        <v>9714200</v>
       </c>
       <c r="H72" s="3">
-        <v>9700400</v>
+        <v>9680500</v>
       </c>
       <c r="I72" s="3">
-        <v>10342400</v>
+        <v>9272100</v>
       </c>
       <c r="J72" s="3">
+        <v>9885900</v>
+      </c>
+      <c r="K72" s="3">
         <v>9820100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10059600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2654,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2686,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2718,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13149000</v>
+        <v>12919700</v>
       </c>
       <c r="E76" s="3">
-        <v>12651300</v>
+        <v>12568500</v>
       </c>
       <c r="F76" s="3">
-        <v>13165500</v>
+        <v>12092800</v>
       </c>
       <c r="G76" s="3">
-        <v>13120800</v>
+        <v>12584200</v>
       </c>
       <c r="H76" s="3">
-        <v>12693600</v>
+        <v>12541600</v>
       </c>
       <c r="I76" s="3">
-        <v>13335700</v>
+        <v>12133200</v>
       </c>
       <c r="J76" s="3">
+        <v>12746900</v>
+      </c>
+      <c r="K76" s="3">
         <v>12812100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13052800</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2782,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="E80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>238300</v>
+        <v>248000</v>
       </c>
       <c r="E81" s="3">
-        <v>476600</v>
+        <v>227800</v>
       </c>
       <c r="F81" s="3">
-        <v>365100</v>
+        <v>455500</v>
       </c>
       <c r="G81" s="3">
-        <v>514100</v>
+        <v>348900</v>
       </c>
       <c r="H81" s="3">
-        <v>-1206700</v>
+        <v>491400</v>
       </c>
       <c r="I81" s="3">
-        <v>835800</v>
+        <v>-1153400</v>
       </c>
       <c r="J81" s="3">
+        <v>798900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-442500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2867,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>565800</v>
+        <v>511600</v>
       </c>
       <c r="E83" s="3">
-        <v>528200</v>
+        <v>540800</v>
       </c>
       <c r="F83" s="3">
-        <v>624500</v>
+        <v>504900</v>
       </c>
       <c r="G83" s="3">
-        <v>574000</v>
+        <v>596900</v>
       </c>
       <c r="H83" s="3">
-        <v>611600</v>
+        <v>548700</v>
       </c>
       <c r="I83" s="3">
-        <v>523500</v>
+        <v>584600</v>
       </c>
       <c r="J83" s="3">
+        <v>500400</v>
+      </c>
+      <c r="K83" s="3">
         <v>1533000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1055300</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2929,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2961,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2993,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3025,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3057,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1447300</v>
+        <v>1089500</v>
       </c>
       <c r="E89" s="3">
-        <v>1263000</v>
+        <v>1383400</v>
       </c>
       <c r="F89" s="3">
-        <v>871000</v>
+        <v>1207300</v>
       </c>
       <c r="G89" s="3">
-        <v>929700</v>
+        <v>832500</v>
       </c>
       <c r="H89" s="3">
-        <v>1162100</v>
+        <v>888600</v>
       </c>
       <c r="I89" s="3">
-        <v>1084600</v>
+        <v>1110800</v>
       </c>
       <c r="J89" s="3">
+        <v>1036700</v>
+      </c>
+      <c r="K89" s="3">
         <v>718400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>764200</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3105,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1995500</v>
+        <v>-554300</v>
       </c>
       <c r="E91" s="3">
+        <v>-1907400</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-483600</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-571100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-356800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-373600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-478000</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-2844100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-505900</v>
       </c>
-      <c r="F91" s="3">
-        <v>-597500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-373300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-390900</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-500000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-2844100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-505900</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3167,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3199,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1900400</v>
+        <v>-501500</v>
       </c>
       <c r="E94" s="3">
-        <v>-631500</v>
+        <v>-1816500</v>
       </c>
       <c r="F94" s="3">
-        <v>-2567100</v>
+        <v>-603600</v>
       </c>
       <c r="G94" s="3">
-        <v>-368600</v>
+        <v>-2453800</v>
       </c>
       <c r="H94" s="3">
-        <v>396700</v>
+        <v>-352300</v>
       </c>
       <c r="I94" s="3">
-        <v>466000</v>
+        <v>379200</v>
       </c>
       <c r="J94" s="3">
+        <v>445400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-206600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-483600</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,37 +3247,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-813500</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-777500</v>
       </c>
       <c r="F96" s="3">
-        <v>62200</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>59500</v>
       </c>
       <c r="H96" s="3">
-        <v>-683200</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-653000</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-99800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3309,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3341,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3373,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1139800</v>
+        <v>-40400</v>
       </c>
       <c r="E100" s="3">
-        <v>-248800</v>
+        <v>-1089500</v>
       </c>
       <c r="F100" s="3">
-        <v>926100</v>
+        <v>-237900</v>
       </c>
       <c r="G100" s="3">
-        <v>-32900</v>
+        <v>886400</v>
       </c>
       <c r="H100" s="3">
-        <v>-713700</v>
+        <v>-31400</v>
       </c>
       <c r="I100" s="3">
-        <v>-149100</v>
+        <v>-682200</v>
       </c>
       <c r="J100" s="3">
+        <v>-142500</v>
+      </c>
+      <c r="K100" s="3">
         <v>191300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>219500</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5900</v>
+        <v>-13500</v>
       </c>
       <c r="E101" s="3">
-        <v>-8200</v>
+        <v>-5600</v>
       </c>
       <c r="F101" s="3">
-        <v>-8200</v>
+        <v>-7900</v>
       </c>
       <c r="G101" s="3">
-        <v>-11700</v>
+        <v>-7900</v>
       </c>
       <c r="H101" s="3">
-        <v>-11700</v>
+        <v>-11200</v>
       </c>
       <c r="I101" s="3">
-        <v>-17600</v>
+        <v>-11200</v>
       </c>
       <c r="J101" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-39900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1598700</v>
+        <v>534100</v>
       </c>
       <c r="E102" s="3">
-        <v>374400</v>
+        <v>-1528200</v>
       </c>
       <c r="F102" s="3">
-        <v>-777100</v>
+        <v>357900</v>
       </c>
       <c r="G102" s="3">
-        <v>516500</v>
+        <v>-742800</v>
       </c>
       <c r="H102" s="3">
-        <v>833400</v>
+        <v>493700</v>
       </c>
       <c r="I102" s="3">
-        <v>1383900</v>
+        <v>796600</v>
       </c>
       <c r="J102" s="3">
+        <v>1322800</v>
+      </c>
+      <c r="K102" s="3">
         <v>663200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>496500</v>
       </c>
     </row>

--- a/Financials/Quarterly/OMVKY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/OMVKY_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0228EE-4BDD-488A-AFE1-7359D1BA8AE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="OMVKY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>OMVKY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,166 +654,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6291000</v>
+        <v>6532000</v>
       </c>
       <c r="E8" s="3">
-        <v>6402100</v>
+        <v>6626400</v>
       </c>
       <c r="F8" s="3">
-        <v>5584100</v>
+        <v>5932500</v>
       </c>
       <c r="G8" s="3">
+        <v>7290700</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6156500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>6265200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5464700</v>
+      </c>
+      <c r="K8" s="3">
         <v>5504500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="L8" s="3">
         <v>5212800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="M8" s="3">
         <v>5780500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="N8" s="3">
         <v>6191100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>6346800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3">
         <v>6161300</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4295000</v>
+        <v>4208600</v>
       </c>
       <c r="E9" s="3">
-        <v>4764000</v>
+        <v>4235000</v>
       </c>
       <c r="F9" s="3">
-        <v>3607200</v>
+        <v>3949500</v>
       </c>
       <c r="G9" s="3">
+        <v>4830100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4203100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4662100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3530100</v>
+      </c>
+      <c r="K9" s="3">
         <v>3775500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="L9" s="3">
         <v>3518600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="M9" s="3">
         <v>4149100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="N9" s="3">
         <v>4238900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="O9" s="3">
         <v>6463000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="P9" s="3">
         <v>5864400</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1996000</v>
+        <v>2323400</v>
       </c>
       <c r="E10" s="3">
-        <v>1638100</v>
+        <v>2391400</v>
       </c>
       <c r="F10" s="3">
-        <v>1976900</v>
+        <v>1983000</v>
       </c>
       <c r="G10" s="3">
+        <v>2460600</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1953300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1603100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1934700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1729000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="L10" s="3">
         <v>1694200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="M10" s="3">
         <v>1631400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
         <v>1952300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="O10" s="3">
         <v>-116200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="P10" s="3">
         <v>297000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,40 +877,56 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>28000</v>
+        <v>41700</v>
       </c>
       <c r="E12" s="3">
-        <v>59500</v>
+        <v>78000</v>
       </c>
       <c r="F12" s="3">
-        <v>41500</v>
+        <v>50500</v>
       </c>
       <c r="G12" s="3">
+        <v>65900</v>
+      </c>
+      <c r="H12" s="3">
+        <v>27500</v>
+      </c>
+      <c r="I12" s="3">
+        <v>58200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>40600</v>
+      </c>
+      <c r="K12" s="3">
         <v>107700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="L12" s="3">
         <v>39300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="M12" s="3">
         <v>65100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="N12" s="3">
         <v>35900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="O12" s="3">
         <v>83300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="P12" s="3">
         <v>77500</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,72 +957,108 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>167200</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-69600</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="3">
+        <v>-147100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>163600</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-68100</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>-3400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="L14" s="3">
         <v>-2200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="M14" s="3">
         <v>1362100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="N14" s="3">
         <v>-153700</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>501500</v>
+        <v>644500</v>
       </c>
       <c r="E15" s="3">
-        <v>527300</v>
+        <v>632400</v>
       </c>
       <c r="F15" s="3">
-        <v>497000</v>
+        <v>602800</v>
       </c>
       <c r="G15" s="3">
+        <v>513900</v>
+      </c>
+      <c r="H15" s="3">
+        <v>490800</v>
+      </c>
+      <c r="I15" s="3">
+        <v>516100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>486400</v>
+      </c>
+      <c r="K15" s="3">
         <v>511600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="L15" s="3">
         <v>538600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="M15" s="3">
         <v>518400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="N15" s="3">
         <v>509400</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1000,72 +1068,100 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5555000</v>
+        <v>5615200</v>
       </c>
       <c r="E17" s="3">
-        <v>5863500</v>
+        <v>5587700</v>
       </c>
       <c r="F17" s="3">
-        <v>4696700</v>
+        <v>5188100</v>
       </c>
       <c r="G17" s="3">
+        <v>5968700</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5436200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>5738100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4596200</v>
+      </c>
+      <c r="K17" s="3">
         <v>4899700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="L17" s="3">
         <v>4581100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>6672500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>5163400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>6659000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="P17" s="3">
         <v>6087400</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>736000</v>
+        <v>916800</v>
       </c>
       <c r="E18" s="3">
-        <v>538600</v>
+        <v>1038700</v>
       </c>
       <c r="F18" s="3">
-        <v>887500</v>
+        <v>744400</v>
       </c>
       <c r="G18" s="3">
+        <v>1322000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>720300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>527000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>868500</v>
+      </c>
+      <c r="K18" s="3">
         <v>604800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
         <v>631700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>-892000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <v>1027700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>-312200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,168 +1174,232 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>156000</v>
+        <v>129600</v>
       </c>
       <c r="E20" s="3">
-        <v>180600</v>
+        <v>211900</v>
       </c>
       <c r="F20" s="3">
-        <v>92000</v>
+        <v>148200</v>
       </c>
       <c r="G20" s="3">
+        <v>82400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>152600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>176800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>90000</v>
+      </c>
+      <c r="K20" s="3">
         <v>25800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="L20" s="3">
         <v>225500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="M20" s="3">
         <v>113300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="N20" s="3">
         <v>149200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="O20" s="3">
         <v>118600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="P20" s="3">
         <v>166700</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1403600</v>
+        <v>1708500</v>
       </c>
       <c r="E21" s="3">
-        <v>1260000</v>
+        <v>1925900</v>
       </c>
       <c r="F21" s="3">
-        <v>1484400</v>
+        <v>1509800</v>
       </c>
       <c r="G21" s="3">
+        <v>1951100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1373600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1233100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1452700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1227500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
         <v>1405900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
         <v>-194100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>1677400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>1205500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>1295900</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>78500</v>
+        <v>85600</v>
       </c>
       <c r="E22" s="3">
-        <v>96500</v>
+        <v>84500</v>
       </c>
       <c r="F22" s="3">
-        <v>71800</v>
-      </c>
-      <c r="G22" s="3" t="s">
+        <v>82400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>76900</v>
+      </c>
+      <c r="H22" s="3">
+        <v>76900</v>
+      </c>
+      <c r="I22" s="3">
+        <v>94400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>70300</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="3">
+      <c r="L22" s="3">
         <v>80800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="M22" s="3">
         <v>69600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="N22" s="3">
         <v>68400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="O22" s="3">
         <v>74000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="P22" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>813400</v>
+        <v>960800</v>
       </c>
       <c r="E23" s="3">
-        <v>622700</v>
+        <v>1166100</v>
       </c>
       <c r="F23" s="3">
-        <v>907700</v>
+        <v>810300</v>
       </c>
       <c r="G23" s="3">
+        <v>1327500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>796100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>609400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>888300</v>
+      </c>
+      <c r="K23" s="3">
         <v>630600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>776400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>-848200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>1108500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>-267600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>371400</v>
+        <v>373300</v>
       </c>
       <c r="E24" s="3">
-        <v>313000</v>
+        <v>443600</v>
       </c>
       <c r="F24" s="3">
-        <v>311900</v>
+        <v>265700</v>
       </c>
       <c r="G24" s="3">
+        <v>456800</v>
+      </c>
+      <c r="H24" s="3">
+        <v>363400</v>
+      </c>
+      <c r="I24" s="3">
+        <v>306300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>305200</v>
+      </c>
+      <c r="K24" s="3">
         <v>159300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="L24" s="3">
         <v>166100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="M24" s="3">
         <v>193000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="N24" s="3">
         <v>193000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="O24" s="3">
         <v>120900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="P24" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1270,72 +1430,108 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>442100</v>
+        <v>587400</v>
       </c>
       <c r="E26" s="3">
-        <v>309700</v>
+        <v>722500</v>
       </c>
       <c r="F26" s="3">
-        <v>595800</v>
+        <v>544600</v>
       </c>
       <c r="G26" s="3">
+        <v>870700</v>
+      </c>
+      <c r="H26" s="3">
+        <v>432600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>303000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>583000</v>
+      </c>
+      <c r="K26" s="3">
         <v>471200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>610400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>-1041200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>915500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>-388500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>248000</v>
+        <v>466700</v>
       </c>
       <c r="E27" s="3">
-        <v>227800</v>
+        <v>596200</v>
       </c>
       <c r="F27" s="3">
-        <v>455500</v>
+        <v>388700</v>
       </c>
       <c r="G27" s="3">
+        <v>667600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>242700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>222900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>445800</v>
+      </c>
+      <c r="K27" s="3">
         <v>348900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>491400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>-1153400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>798900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>-442500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1366,8 +1562,20 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1398,8 +1606,20 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1430,8 +1650,20 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1462,72 +1694,108 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-156000</v>
+        <v>-129600</v>
       </c>
       <c r="E32" s="3">
-        <v>-180600</v>
+        <v>-211900</v>
       </c>
       <c r="F32" s="3">
-        <v>-92000</v>
+        <v>-148200</v>
       </c>
       <c r="G32" s="3">
+        <v>-82400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-152600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-176800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-90000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-25800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="L32" s="3">
         <v>-225500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="M32" s="3">
         <v>-113300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="N32" s="3">
         <v>-149200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="O32" s="3">
         <v>-118600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="P32" s="3">
         <v>-166700</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>248000</v>
+        <v>466700</v>
       </c>
       <c r="E33" s="3">
-        <v>227800</v>
+        <v>596200</v>
       </c>
       <c r="F33" s="3">
-        <v>455500</v>
+        <v>388700</v>
       </c>
       <c r="G33" s="3">
+        <v>667600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>242700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>222900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>445800</v>
+      </c>
+      <c r="K33" s="3">
         <v>348900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>491400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>-1153400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>798900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>-442500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1558,77 +1826,113 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>248000</v>
+        <v>466700</v>
       </c>
       <c r="E35" s="3">
-        <v>227800</v>
+        <v>596200</v>
       </c>
       <c r="F35" s="3">
-        <v>455500</v>
+        <v>388700</v>
       </c>
       <c r="G35" s="3">
+        <v>667600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>242700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>222900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>445800</v>
+      </c>
+      <c r="K35" s="3">
         <v>348900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>491400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>-1153400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>798900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>-442500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1641,8 +1945,12 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1655,296 +1963,408 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3829400</v>
+        <v>3466400</v>
       </c>
       <c r="E41" s="3">
-        <v>3284100</v>
+        <v>4052700</v>
       </c>
       <c r="F41" s="3">
-        <v>4821200</v>
+        <v>4023100</v>
       </c>
       <c r="G41" s="3">
+        <v>4420500</v>
+      </c>
+      <c r="H41" s="3">
+        <v>3747500</v>
+      </c>
+      <c r="I41" s="3">
+        <v>3213800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4718100</v>
+      </c>
+      <c r="K41" s="3">
         <v>4456500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="L41" s="3">
         <v>5209400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="M41" s="3">
         <v>4715700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="N41" s="3">
         <v>3504000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
         <v>2428600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="P41" s="3">
         <v>2051800</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4284900</v>
+        <v>2452900</v>
       </c>
       <c r="E42" s="3">
-        <v>2674800</v>
+        <v>3206200</v>
       </c>
       <c r="F42" s="3">
-        <v>1356500</v>
+        <v>2734000</v>
       </c>
       <c r="G42" s="3">
+        <v>2994200</v>
+      </c>
+      <c r="H42" s="3">
+        <v>4193300</v>
+      </c>
+      <c r="I42" s="3">
+        <v>2617600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1327500</v>
+      </c>
+      <c r="K42" s="3">
         <v>1279100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="L42" s="3">
         <v>1220700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="M42" s="3">
         <v>905400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="N42" s="3">
         <v>821300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="O42" s="3">
         <v>1461400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="P42" s="3">
         <v>1007100</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3238100</v>
+        <v>3412600</v>
       </c>
       <c r="E43" s="3">
-        <v>3010300</v>
+        <v>3346700</v>
       </c>
       <c r="F43" s="3">
-        <v>3619500</v>
+        <v>4000000</v>
       </c>
       <c r="G43" s="3">
+        <v>3765000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>3168800</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2945900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3542100</v>
+      </c>
+      <c r="K43" s="3">
         <v>2825200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="L43" s="3">
         <v>2287700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="M43" s="3">
         <v>2318000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="N43" s="3">
         <v>2921700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="O43" s="3">
         <v>2924000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="P43" s="3">
         <v>3400500</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1869200</v>
+        <v>2124600</v>
       </c>
       <c r="E44" s="3">
-        <v>1675100</v>
+        <v>1782100</v>
       </c>
       <c r="F44" s="3">
-        <v>1519200</v>
+        <v>1905000</v>
       </c>
       <c r="G44" s="3">
+        <v>1725000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1829300</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1639300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1486700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1686400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="L44" s="3">
         <v>1729000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="M44" s="3">
         <v>1495600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="N44" s="3">
         <v>1647100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="O44" s="3">
         <v>1952000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="P44" s="3">
         <v>2046000</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>424100</v>
+        <v>256900</v>
       </c>
       <c r="E45" s="3">
-        <v>434200</v>
+        <v>274500</v>
       </c>
       <c r="F45" s="3">
-        <v>370300</v>
+        <v>303000</v>
       </c>
       <c r="G45" s="3">
+        <v>289900</v>
+      </c>
+      <c r="H45" s="3">
+        <v>415000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>424900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>362300</v>
+      </c>
+      <c r="K45" s="3">
         <v>297300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="L45" s="3">
         <v>269300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="M45" s="3">
         <v>286100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="N45" s="3">
         <v>280500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="O45" s="3">
         <v>232400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="P45" s="3">
         <v>367400</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13645600</v>
+        <v>11713500</v>
       </c>
       <c r="E46" s="3">
-        <v>11078500</v>
+        <v>12662100</v>
       </c>
       <c r="F46" s="3">
-        <v>11686600</v>
+        <v>12965200</v>
       </c>
       <c r="G46" s="3">
+        <v>13194700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>13353900</v>
+      </c>
+      <c r="I46" s="3">
+        <v>10841700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>11436800</v>
+      </c>
+      <c r="K46" s="3">
         <v>10544500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="L46" s="3">
         <v>10716100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="M46" s="3">
         <v>9720900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="N46" s="3">
         <v>9174500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="O46" s="3">
         <v>8998400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="P46" s="3">
         <v>8872800</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6076700</v>
+        <v>8757600</v>
       </c>
       <c r="E47" s="3">
-        <v>5804100</v>
+        <v>6129000</v>
       </c>
       <c r="F47" s="3">
-        <v>5350800</v>
+        <v>6015900</v>
       </c>
       <c r="G47" s="3">
+        <v>6225700</v>
+      </c>
+      <c r="H47" s="3">
+        <v>5946800</v>
+      </c>
+      <c r="I47" s="3">
+        <v>5680000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>5236400</v>
+      </c>
+      <c r="K47" s="3">
         <v>5466300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="L47" s="3">
         <v>4431900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="M47" s="3">
         <v>4404900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="N47" s="3">
         <v>4145800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="O47" s="3">
         <v>4468700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="P47" s="3">
         <v>4164700</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15882900</v>
+        <v>18247700</v>
       </c>
       <c r="E48" s="3">
-        <v>16013000</v>
+        <v>18078600</v>
       </c>
       <c r="F48" s="3">
-        <v>15190600</v>
+        <v>18006100</v>
       </c>
       <c r="G48" s="3">
+        <v>16596300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>15543300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>15670700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>14865800</v>
+      </c>
+      <c r="K48" s="3">
         <v>15319700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3">
         <v>15457700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="M48" s="3">
         <v>15748300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="N48" s="3">
         <v>16063500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>17152900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="P48" s="3">
         <v>17763300</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3243700</v>
+        <v>4664300</v>
       </c>
       <c r="E49" s="3">
-        <v>3258300</v>
+        <v>4520500</v>
       </c>
       <c r="F49" s="3">
-        <v>2945200</v>
+        <v>4633600</v>
       </c>
       <c r="G49" s="3">
+        <v>3642100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3174300</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3188600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2882300</v>
+      </c>
+      <c r="K49" s="3">
         <v>2971000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="L49" s="3">
         <v>1852400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="M49" s="3">
         <v>1867000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="N49" s="3">
         <v>1934300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="O49" s="3">
         <v>2010700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="P49" s="3">
         <v>2851200</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,8 +2395,20 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2007,40 +2439,64 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1272300</v>
+        <v>876200</v>
       </c>
       <c r="E52" s="3">
-        <v>1439500</v>
+        <v>845500</v>
       </c>
       <c r="F52" s="3">
-        <v>1139900</v>
+        <v>879500</v>
       </c>
       <c r="G52" s="3">
+        <v>924500</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1245100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1408700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1115600</v>
+      </c>
+      <c r="K52" s="3">
         <v>1126500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="L52" s="3">
         <v>935700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="M52" s="3">
         <v>1169100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="N52" s="3">
         <v>3635200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="O52" s="3">
         <v>5062600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="P52" s="3">
         <v>2902800</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2071,40 +2527,64 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>40121200</v>
+        <v>44259300</v>
       </c>
       <c r="E54" s="3">
-        <v>37593400</v>
+        <v>42235700</v>
       </c>
       <c r="F54" s="3">
-        <v>36313200</v>
+        <v>42500300</v>
       </c>
       <c r="G54" s="3">
+        <v>40583200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>39263400</v>
+      </c>
+      <c r="I54" s="3">
+        <v>36789600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>35536800</v>
+      </c>
+      <c r="K54" s="3">
         <v>35428000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>33393800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>32910200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>34953400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>37693400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="P54" s="3">
         <v>36554800</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2117,8 +2597,12 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2131,200 +2615,276 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4154700</v>
+        <v>4293200</v>
       </c>
       <c r="E57" s="3">
-        <v>3961700</v>
+        <v>3895700</v>
       </c>
       <c r="F57" s="3">
-        <v>3995400</v>
+        <v>4770800</v>
       </c>
       <c r="G57" s="3">
+        <v>4832300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>4065900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>3877000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3910000</v>
+      </c>
+      <c r="K57" s="3">
         <v>3659900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
         <v>3268400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
         <v>3028300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>3460200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="O57" s="3">
         <v>4379500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="P57" s="3">
         <v>4035600</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>978400</v>
+        <v>1585500</v>
       </c>
       <c r="E58" s="3">
-        <v>1023300</v>
+        <v>1553700</v>
       </c>
       <c r="F58" s="3">
-        <v>1944400</v>
+        <v>1775500</v>
       </c>
       <c r="G58" s="3">
+        <v>925600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>957500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1001400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1902800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1012000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="L58" s="3">
         <v>274900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="M58" s="3">
         <v>218800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="N58" s="3">
         <v>190700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="O58" s="3">
         <v>305200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="P58" s="3">
         <v>721900</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6262900</v>
+        <v>4375500</v>
       </c>
       <c r="E59" s="3">
-        <v>4744900</v>
+        <v>5150700</v>
       </c>
       <c r="F59" s="3">
-        <v>3158400</v>
+        <v>4790600</v>
       </c>
       <c r="G59" s="3">
+        <v>4870700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>6129000</v>
+      </c>
+      <c r="I59" s="3">
+        <v>4643400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3090900</v>
+      </c>
+      <c r="K59" s="3">
         <v>2986700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>2753400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>2555900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>2606400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>3211500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
         <v>3006100</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11396100</v>
+        <v>10254200</v>
       </c>
       <c r="E60" s="3">
-        <v>9729900</v>
+        <v>10600100</v>
       </c>
       <c r="F60" s="3">
-        <v>9098200</v>
+        <v>11336900</v>
       </c>
       <c r="G60" s="3">
+        <v>10628600</v>
+      </c>
+      <c r="H60" s="3">
+        <v>11152400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>9521900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>8903700</v>
+      </c>
+      <c r="K60" s="3">
         <v>7658700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>6296600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>5802900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>6257300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>7896200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>7763600</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5118500</v>
+        <v>7266600</v>
       </c>
       <c r="E61" s="3">
-        <v>5145400</v>
+        <v>6113700</v>
       </c>
       <c r="F61" s="3">
-        <v>5127500</v>
+        <v>5746900</v>
       </c>
       <c r="G61" s="3">
+        <v>5390100</v>
+      </c>
+      <c r="H61" s="3">
+        <v>5009100</v>
+      </c>
+      <c r="I61" s="3">
+        <v>5035400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>5017900</v>
+      </c>
+      <c r="K61" s="3">
         <v>5375500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="L61" s="3">
         <v>5134200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="M61" s="3">
         <v>5244200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="N61" s="3">
         <v>5276700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="O61" s="3">
         <v>5869100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="P61" s="3">
         <v>5379600</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7018000</v>
+        <v>8437000</v>
       </c>
       <c r="E62" s="3">
-        <v>6651200</v>
+        <v>7945100</v>
       </c>
       <c r="F62" s="3">
-        <v>6380800</v>
+        <v>7650900</v>
       </c>
       <c r="G62" s="3">
+        <v>7718900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>6868000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>6508900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>6244300</v>
+      </c>
+      <c r="K62" s="3">
         <v>6311200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="L62" s="3">
         <v>5978000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="M62" s="3">
         <v>6342600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="N62" s="3">
         <v>7216600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="O62" s="3">
         <v>7582800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="P62" s="3">
         <v>6944300</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2355,8 +2915,20 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2387,8 +2959,20 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2419,40 +3003,64 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>27201500</v>
+        <v>30142300</v>
       </c>
       <c r="E66" s="3">
-        <v>25024900</v>
+        <v>28753300</v>
       </c>
       <c r="F66" s="3">
-        <v>24220400</v>
+        <v>28915800</v>
       </c>
       <c r="G66" s="3">
+        <v>27510400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>26619900</v>
+      </c>
+      <c r="I66" s="3">
+        <v>24489800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>23702500</v>
+      </c>
+      <c r="K66" s="3">
         <v>22843700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>20852200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>20777000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>22206400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>24881300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>23502000</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2465,8 +3073,12 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2497,8 +3109,20 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2529,8 +3153,20 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2561,8 +3197,20 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2593,40 +3241,64 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10329000</v>
+        <v>11580600</v>
       </c>
       <c r="E72" s="3">
-        <v>9979000</v>
+        <v>10946000</v>
       </c>
       <c r="F72" s="3">
-        <v>10062000</v>
+        <v>11050300</v>
       </c>
       <c r="G72" s="3">
+        <v>10494700</v>
+      </c>
+      <c r="H72" s="3">
+        <v>10108200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>9765600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>9846900</v>
+      </c>
+      <c r="K72" s="3">
         <v>9714200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>9680500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>9272100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>9885900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>9820100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>10059600</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2657,8 +3329,20 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2689,8 +3373,20 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2721,40 +3417,64 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12919700</v>
+        <v>14117000</v>
       </c>
       <c r="E76" s="3">
-        <v>12568500</v>
+        <v>13482300</v>
       </c>
       <c r="F76" s="3">
-        <v>12092800</v>
+        <v>13584500</v>
       </c>
       <c r="G76" s="3">
+        <v>13072800</v>
+      </c>
+      <c r="H76" s="3">
+        <v>12643500</v>
+      </c>
+      <c r="I76" s="3">
+        <v>12299800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>11834200</v>
+      </c>
+      <c r="K76" s="3">
         <v>12584200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>12541600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>12133200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>12746900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>12812100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>13052800</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2785,77 +3505,113 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>248000</v>
+        <v>466700</v>
       </c>
       <c r="E81" s="3">
-        <v>227800</v>
+        <v>596200</v>
       </c>
       <c r="F81" s="3">
-        <v>455500</v>
+        <v>388700</v>
       </c>
       <c r="G81" s="3">
+        <v>667600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>242700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>222900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>445800</v>
+      </c>
+      <c r="K81" s="3">
         <v>348900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>491400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>-1153400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>798900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>-442500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2868,40 +3624,56 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>511600</v>
+        <v>662100</v>
       </c>
       <c r="E83" s="3">
-        <v>540800</v>
+        <v>675300</v>
       </c>
       <c r="F83" s="3">
-        <v>504900</v>
+        <v>617100</v>
       </c>
       <c r="G83" s="3">
+        <v>546800</v>
+      </c>
+      <c r="H83" s="3">
+        <v>500700</v>
+      </c>
+      <c r="I83" s="3">
+        <v>529200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>494100</v>
+      </c>
+      <c r="K83" s="3">
         <v>596900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="L83" s="3">
         <v>548700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="M83" s="3">
         <v>584600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="N83" s="3">
         <v>500400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="O83" s="3">
         <v>1533000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="P83" s="3">
         <v>1055300</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2932,8 +3704,20 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2964,8 +3748,20 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2996,8 +3792,20 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3028,8 +3836,20 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3060,40 +3880,64 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1089500</v>
+        <v>1180400</v>
       </c>
       <c r="E89" s="3">
-        <v>1383400</v>
+        <v>1245100</v>
       </c>
       <c r="F89" s="3">
-        <v>1207300</v>
+        <v>950900</v>
       </c>
       <c r="G89" s="3">
+        <v>1224300</v>
+      </c>
+      <c r="H89" s="3">
+        <v>1066200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1353800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1181400</v>
+      </c>
+      <c r="K89" s="3">
         <v>832500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="L89" s="3">
         <v>888600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>1110800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="N89" s="3">
         <v>1036700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>718400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="P89" s="3">
         <v>764200</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3106,40 +3950,56 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-554300</v>
+        <v>-596200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1907400</v>
+        <v>-540200</v>
       </c>
       <c r="F91" s="3">
-        <v>-483600</v>
+        <v>-568800</v>
       </c>
       <c r="G91" s="3">
+        <v>-623700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-542400</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1866600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-473200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-571100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="L91" s="3">
         <v>-356800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="M91" s="3">
         <v>-373600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="N91" s="3">
         <v>-478000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="O91" s="3">
         <v>-2844100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="P91" s="3">
         <v>-505900</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3170,8 +4030,20 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3202,40 +4074,64 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-501500</v>
+        <v>-2849300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1816500</v>
+        <v>-455700</v>
       </c>
       <c r="F94" s="3">
-        <v>-603600</v>
+        <v>-1087000</v>
       </c>
       <c r="G94" s="3">
+        <v>-822400</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-490800</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-1777700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-590700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2453800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="L94" s="3">
         <v>-352300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="M94" s="3">
         <v>379200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="N94" s="3">
         <v>445400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="O94" s="3">
         <v>-206600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="P94" s="3">
         <v>-483600</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3248,8 +4144,12 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3257,31 +4157,43 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-777500</v>
+        <v>-847700</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>79100</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-760900</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>59500</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-653000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-99800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3312,8 +4224,20 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3344,8 +4268,20 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3376,100 +4312,148 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-40400</v>
+        <v>1088100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1089500</v>
+        <v>-764200</v>
       </c>
       <c r="F100" s="3">
-        <v>-237900</v>
+        <v>-252500</v>
       </c>
       <c r="G100" s="3">
+        <v>267900</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-1066200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-232800</v>
+      </c>
+      <c r="K100" s="3">
         <v>886400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="L100" s="3">
         <v>-31400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="M100" s="3">
         <v>-682200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="N100" s="3">
         <v>-142500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="O100" s="3">
         <v>191300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="P100" s="3">
         <v>219500</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13500</v>
+        <v>-5500</v>
       </c>
       <c r="E101" s="3">
-        <v>-5600</v>
+        <v>5500</v>
       </c>
       <c r="F101" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="G101" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-7900</v>
       </c>
-      <c r="G101" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="L101" s="3">
         <v>-11200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="M101" s="3">
         <v>-11200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="N101" s="3">
         <v>-16800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="O101" s="3">
         <v>-39900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="P101" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>534100</v>
+        <v>-586300</v>
       </c>
       <c r="E102" s="3">
-        <v>-1528200</v>
+        <v>30700</v>
       </c>
       <c r="F102" s="3">
-        <v>357900</v>
+        <v>-398600</v>
       </c>
       <c r="G102" s="3">
+        <v>672000</v>
+      </c>
+      <c r="H102" s="3">
+        <v>522600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-1495500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>350300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-742800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="L102" s="3">
         <v>493700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="M102" s="3">
         <v>796600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="N102" s="3">
         <v>1322800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="O102" s="3">
         <v>663200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="P102" s="3">
         <v>496500</v>
       </c>
     </row>
